--- a/forEclipse/workspace/test_bk.xlsx
+++ b/forEclipse/workspace/test_bk.xlsx
@@ -29,15 +29,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+  <si>
+    <t>ja out name</t>
+  </si>
+  <si>
+    <t>ja out num</t>
+  </si>
+  <si>
+    <t>ja out type</t>
+  </si>
+  <si>
+    <t>day m tol</t>
+  </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>ch in</t>
-  </si>
-  <si>
-    <t>ch in num</t>
+    <t>in name</t>
+  </si>
+  <si>
+    <t>in num</t>
+  </si>
+  <si>
+    <t>in type</t>
   </si>
   <si>
     <t>ch out</t>
@@ -46,6 +61,9 @@
     <t>ch out num</t>
   </si>
   <si>
+    <t>ch out type</t>
+  </si>
+  <si>
     <t>m1</t>
   </si>
   <si>
@@ -61,13 +79,16 @@
     <t>memo</t>
   </si>
   <si>
+    <t>2024/3/30</t>
+  </si>
+  <si>
+    <t>costDetails1</t>
+  </si>
+  <si>
+    <t>morningf</t>
+  </si>
+  <si>
     <t>2024/4/1</t>
-  </si>
-  <si>
-    <t>costDetails1</t>
-  </si>
-  <si>
-    <t>morningf</t>
   </si>
   <si>
     <t>2024/4/2</t>
@@ -1064,7 +1085,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:Q31"/>
+  <dimension ref="A3:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,198 +1095,260 @@
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="10" width="10.375" customWidth="1"/>
+    <col min="13" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:17">
-      <c r="F3">
-        <v>6000</v>
+    <row r="3" spans="2:19">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>3000</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="O4">
+        <v>5000</v>
+      </c>
+      <c r="P4">
+        <v>2000</v>
+      </c>
+      <c r="Q4">
+        <v>800000</v>
+      </c>
+      <c r="R4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
